--- a/Admin/KhachHang/khachhang.xlsx
+++ b/Admin/KhachHang/khachhang.xlsx
@@ -207,7 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffff00"/>
+        <fgColor rgb="96f4fe"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -882,7 +882,7 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
